--- a/Income/EQIX_inc.xlsx
+++ b/Income/EQIX_inc.xlsx
@@ -1780,16 +1780,16 @@
         <v>0.4894</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.4955</v>
+        <v>0.4946</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.4955</v>
+        <v>0.4946</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.4943</v>
+        <v>0.4934</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.4958</v>
+        <v>0.4948</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.4949</v>
@@ -1907,16 +1907,16 @@
         <v>0.1762</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1955</v>
+        <v>0.1951</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1991</v>
+        <v>0.1987</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2034</v>
+        <v>0.203</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2107</v>
+        <v>0.2103</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2067</v>
@@ -2034,16 +2034,16 @@
         <v>0.0864</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1007</v>
+        <v>0.1006</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1172</v>
+        <v>0.117</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1211</v>
+        <v>0.1209</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1247</v>
+        <v>0.1245</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1221</v>
@@ -2161,16 +2161,16 @@
         <v>0.0619</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.0763</v>
+        <v>0.0762</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0874</v>
+        <v>0.0872</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0904</v>
+        <v>0.0903</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0914</v>
+        <v>0.0912</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.0903</v>
@@ -2294,7 +2294,7 @@
         <v>0.0211</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0233</v>
+        <v>0.0232</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.0185</v>
@@ -2408,10 +2408,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>2595841900.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2492035900.0</v>
@@ -3885,16 +3883,16 @@
         <v>0.4171</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.4347</v>
+        <v>0.4338</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.4364</v>
+        <v>0.4355</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.4384</v>
+        <v>0.4375</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.4445</v>
+        <v>0.4436</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.4401</v>
@@ -4012,16 +4010,16 @@
         <v>0.4105</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.3702</v>
+        <v>0.3695</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.3722</v>
+        <v>0.3714</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.3715</v>
+        <v>0.3708</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.359</v>
+        <v>0.3583</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.3706</v>
